--- a/results/I3_N5_M2_T45_C200_DepCentral_s3_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C200_DepCentral_s3_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>441.3270483010735</v>
+        <v>1073.49013953524</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0149998664855957</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25.08999080920084</v>
+        <v>19.85485207586932</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.176485280449541</v>
+        <v>11.43422928288365</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.903542772323738</v>
+        <v>5.06951674225463</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>355.7499999999985</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.76000000000001</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.10555953090582</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>26.89444046909418</v>
       </c>
     </row>
     <row r="5">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>15.33301651610694</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.62482380361045</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,7 +1007,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1015,13 +1015,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1029,13 +1029,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1043,13 +1043,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -1074,12 +1074,68 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>7</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1182,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>190.48</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1193,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>194.34</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
@@ -1204,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>187.84</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1215,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>201.88</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11">
@@ -1226,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>197.175</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12">
@@ -1237,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>124.7600000000004</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
@@ -1248,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>134.9</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
@@ -1259,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>118.4650000000005</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -1270,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>137.7</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -1281,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>133.99</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1292,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>236.0799999999998</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18">
@@ -1303,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>233.0649999999999</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19">
@@ -1314,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>230.2349999999999</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20">
@@ -1325,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>240.0549999999998</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21">
@@ -1336,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>238.4399999999999</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22">
@@ -1347,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>67.32000000000029</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23">
@@ -1358,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>76.2050000000003</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24">
@@ -1369,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>81.1900000000003</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25">
@@ -1380,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>70.59000000000029</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26">
@@ -1391,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>74.58500000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
@@ -1402,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>39.07000000000073</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -1413,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>38.04000000000073</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -1424,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>37.33500000000073</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -1435,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>47.82500000000073</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -1446,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>47.45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32">
@@ -1457,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>236.0799999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1468,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>233.0649999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1479,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>230.2349999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1490,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>240.0549999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1501,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>238.4399999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1512,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>67.32000000000029</v>
+        <v>264</v>
       </c>
     </row>
     <row r="38">
@@ -1523,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>76.2050000000003</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39">
@@ -1534,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>81.1900000000003</v>
+        <v>273</v>
       </c>
     </row>
     <row r="40">
@@ -1545,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>70.59000000000029</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41">
@@ -1556,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>74.58500000000029</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -1603,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>36.07999999999983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1614,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.06499999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1625,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>30.23499999999989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1636,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>40.05499999999983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1647,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>38.43999999999986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1658,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1669,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -1680,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -1691,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -1702,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1749,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1760,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1771,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1782,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1793,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1804,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1815,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1826,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1837,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1848,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1914,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -1925,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1936,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1947,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1958,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22">
@@ -1969,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>6.905</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1980,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>7.405</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -1991,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>5.025</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2002,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7.495</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2013,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.05</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,7 +2113,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2065,10 +2121,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2076,10 +2132,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2087,10 +2143,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2098,10 +2154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2112,9 +2168,53 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
